--- a/test.xlsx
+++ b/test.xlsx
@@ -1,46 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vava\Documents\onebitcode\Onebitcode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Relátorio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Relátorio" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Aston Martin</t>
+  </si>
+  <si>
+    <t>Bentley</t>
+  </si>
+  <si>
+    <t>Jaguar</t>
+  </si>
+  <si>
+    <t>MGB</t>
+  </si>
+  <si>
+    <t>Rolls Royce</t>
+  </si>
+  <si>
+    <t>TVR</t>
+  </si>
+  <si>
+    <t>Triumph</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,10 +90,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -66,339 +110,619 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="Currency" xfId="1" builtinId="4" hidden="0"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="pt-BR"/>
               <a:t>Venda por Fabricantes</a:t>
             </a:r>
           </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Relátorio'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Relátorio!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aston Martin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Relátorio'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Relátorio'!$B$2:$B$5</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Relátorio'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Relátorio!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Relátorio!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1152000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2355660</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2262440</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4915940</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7454-4CDC-8BC2-BCC4EB0E37D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Relátorio!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bentley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Relátorio'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Relátorio'!$C$2:$C$5</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Relátorio'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Relátorio!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Relátorio!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>919500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>702500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1811500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1517750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7454-4CDC-8BC2-BCC4EB0E37D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Relátorio!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jaguar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Relátorio'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Relátorio'!$D$2:$D$5</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'Relátorio'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Relátorio!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Relátorio!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>647500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1380000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1352000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2939500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7454-4CDC-8BC2-BCC4EB0E37D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Relátorio!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Relátorio'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Relátorio'!$E$2:$E$5</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'Relátorio'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Relátorio!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Relátorio!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>315000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>696000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7454-4CDC-8BC2-BCC4EB0E37D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Relátorio!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rolls Royce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Relátorio'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Relátorio'!$F$2:$F$5</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'Relátorio'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Relátorio!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Relátorio!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>466500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1947300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>960500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3982600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7454-4CDC-8BC2-BCC4EB0E37D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Relátorio!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TVR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Relátorio'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Relátorio'!$G$2:$G$5</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <tx>
-            <strRef>
-              <f>'Relátorio'!H1</f>
-            </strRef>
-          </tx>
-          <spPr>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Relátorio!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Relátorio!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>171750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>327000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7454-4CDC-8BC2-BCC4EB0E37D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Relátorio!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Triumph</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Relátorio'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Relátorio'!$H$2:$H$5</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Relátorio!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Relátorio!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>286500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>588500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7454-4CDC-8BC2-BCC4EB0E37D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,175 +1009,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Aston Martin</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Bentley</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jaguar</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MGB</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Rolls Royce</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TVR</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Triumph</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2012</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1152000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>919500</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>647500</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>466500</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2013</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2355660</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>702500</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1380000</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>315000</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1947300</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>171750</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>286500</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2014</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2262440</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1811500</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1352000</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>960500</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2015</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4915940</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1517750</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2939500</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>696000</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3982600</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>327000</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>588500</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
-        <f>SUM(B2:B5)</f>
-        <v/>
+        <f t="shared" ref="B6:H6" si="0">SUM(B2:B5)</f>
+        <v>10686040</v>
       </c>
       <c r="C6" s="2">
-        <f>SUM(C2:C5)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>4951250</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(D2:D5)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>6319000</v>
       </c>
       <c r="E6" s="2">
-        <f>SUM(E2:E5)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1011000</v>
       </c>
       <c r="F6" s="2">
-        <f>SUM(F2:F5)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>7356900</v>
       </c>
       <c r="G6" s="2">
-        <f>SUM(G2:G5)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>498750</v>
       </c>
       <c r="H6" s="2">
-        <f>SUM(H2:H5)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>875000</v>
       </c>
     </row>
   </sheetData>
